--- a/Mifos Automation Excels/Client/2435-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-Date-VAR-INST-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2435-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-Date-VAR-INST-Newcreateloan1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
   <si>
     <t>#</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>validaterepaymentschedule</t>
+  </si>
+  <si>
+    <t>waittopageload1</t>
   </si>
 </sst>
 </file>
@@ -660,7 +663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1651,10 +1654,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,57 +1708,65 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="21">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B7" s="16" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="6">
-        <v>42005</v>
+        <v>40</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="B9" s="6">
+        <v>42005</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="6">
-        <v>42005</v>
+        <v>45</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="6">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>49</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Client/2435-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-Date-VAR-INST-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2435-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-Date-VAR-INST-Newcreateloan1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -314,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -356,6 +356,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -662,7 +665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -874,10 +877,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,13 +897,14 @@
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -937,20 +941,21 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="11">
@@ -977,8 +982,9 @@
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="10"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -1011,9 +1017,7 @@
       <c r="L3" s="10">
         <v>0</v>
       </c>
-      <c r="M3" s="10">
-        <v>0</v>
-      </c>
+      <c r="M3" s="10"/>
       <c r="N3" s="10">
         <v>0</v>
       </c>
@@ -1021,10 +1025,13 @@
         <v>0</v>
       </c>
       <c r="P3" s="10">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -1057,9 +1064,7 @@
       <c r="L4" s="10">
         <v>0</v>
       </c>
-      <c r="M4" s="10">
-        <v>0</v>
-      </c>
+      <c r="M4" s="10"/>
       <c r="N4" s="10">
         <v>0</v>
       </c>
@@ -1067,10 +1072,13 @@
         <v>0</v>
       </c>
       <c r="P4" s="10">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -1103,9 +1111,7 @@
       <c r="L5" s="10">
         <v>0</v>
       </c>
-      <c r="M5" s="10">
-        <v>0</v>
-      </c>
+      <c r="M5" s="10"/>
       <c r="N5" s="10">
         <v>0</v>
       </c>
@@ -1113,10 +1119,13 @@
         <v>0</v>
       </c>
       <c r="P5" s="10">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -1149,9 +1158,7 @@
       <c r="L6" s="10">
         <v>0</v>
       </c>
-      <c r="M6" s="10">
-        <v>0</v>
-      </c>
+      <c r="M6" s="10"/>
       <c r="N6" s="10">
         <v>0</v>
       </c>
@@ -1159,10 +1166,13 @@
         <v>0</v>
       </c>
       <c r="P6" s="10">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -1195,9 +1205,7 @@
       <c r="L7" s="10">
         <v>0</v>
       </c>
-      <c r="M7" s="10">
-        <v>0</v>
-      </c>
+      <c r="M7" s="10"/>
       <c r="N7" s="10">
         <v>0</v>
       </c>
@@ -1205,10 +1213,13 @@
         <v>0</v>
       </c>
       <c r="P7" s="10">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -1241,9 +1252,7 @@
       <c r="L8" s="10">
         <v>0</v>
       </c>
-      <c r="M8" s="10">
-        <v>0</v>
-      </c>
+      <c r="M8" s="10"/>
       <c r="N8" s="10">
         <v>0</v>
       </c>
@@ -1251,10 +1260,13 @@
         <v>0</v>
       </c>
       <c r="P8" s="10">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -1287,9 +1299,7 @@
       <c r="L9" s="10">
         <v>0</v>
       </c>
-      <c r="M9" s="10">
-        <v>0</v>
-      </c>
+      <c r="M9" s="10"/>
       <c r="N9" s="10">
         <v>0</v>
       </c>
@@ -1297,10 +1307,13 @@
         <v>0</v>
       </c>
       <c r="P9" s="10">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -1333,9 +1346,7 @@
       <c r="L10" s="10">
         <v>0</v>
       </c>
-      <c r="M10" s="10">
-        <v>0</v>
-      </c>
+      <c r="M10" s="10"/>
       <c r="N10" s="10">
         <v>0</v>
       </c>
@@ -1343,10 +1354,13 @@
         <v>0</v>
       </c>
       <c r="P10" s="10">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -1379,9 +1393,7 @@
       <c r="L11" s="10">
         <v>0</v>
       </c>
-      <c r="M11" s="10">
-        <v>0</v>
-      </c>
+      <c r="M11" s="10"/>
       <c r="N11" s="10">
         <v>0</v>
       </c>
@@ -1389,10 +1401,13 @@
         <v>0</v>
       </c>
       <c r="P11" s="10">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -1425,9 +1440,7 @@
       <c r="L12" s="10">
         <v>0</v>
       </c>
-      <c r="M12" s="10">
-        <v>0</v>
-      </c>
+      <c r="M12" s="10"/>
       <c r="N12" s="10">
         <v>0</v>
       </c>
@@ -1435,10 +1448,13 @@
         <v>0</v>
       </c>
       <c r="P12" s="10">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -1471,9 +1487,7 @@
       <c r="L13" s="10">
         <v>0</v>
       </c>
-      <c r="M13" s="10">
-        <v>0</v>
-      </c>
+      <c r="M13" s="10"/>
       <c r="N13" s="10">
         <v>0</v>
       </c>
@@ -1481,10 +1495,13 @@
         <v>0</v>
       </c>
       <c r="P13" s="10">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -1517,9 +1534,7 @@
       <c r="L14" s="10">
         <v>0</v>
       </c>
-      <c r="M14" s="10">
-        <v>0</v>
-      </c>
+      <c r="M14" s="10"/>
       <c r="N14" s="10">
         <v>0</v>
       </c>
@@ -1527,15 +1542,18 @@
         <v>0</v>
       </c>
       <c r="P14" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="10">
         <v>914.42</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="18"/>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
@@ -1543,10 +1561,11 @@
       <c r="J15" s="17"/>
       <c r="K15" s="19"/>
       <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
+      <c r="M15" s="21"/>
       <c r="N15" s="17"/>
       <c r="O15" s="17"/>
-      <c r="P15" s="19"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
